--- a/results/random_scenario_sim.xlsx
+++ b/results/random_scenario_sim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>min load val</t>
   </si>
@@ -22,34 +22,31 @@
     <t>min load time</t>
   </si>
   <si>
-    <t>20:07:00</t>
-  </si>
-  <si>
-    <t>18:58:00</t>
-  </si>
-  <si>
-    <t>21:28:00</t>
-  </si>
-  <si>
-    <t>19:07:00</t>
-  </si>
-  <si>
-    <t>19:21:00</t>
-  </si>
-  <si>
-    <t>20:25:00</t>
-  </si>
-  <si>
-    <t>19:10:00</t>
-  </si>
-  <si>
-    <t>19:03:00</t>
-  </si>
-  <si>
-    <t>21:48:00</t>
-  </si>
-  <si>
-    <t>22:00:00</t>
+    <t>21:45:00</t>
+  </si>
+  <si>
+    <t>19:25:00</t>
+  </si>
+  <si>
+    <t>20:50:00</t>
+  </si>
+  <si>
+    <t>19:06:00</t>
+  </si>
+  <si>
+    <t>19:13:00</t>
+  </si>
+  <si>
+    <t>18:59:00</t>
+  </si>
+  <si>
+    <t>20:36:00</t>
+  </si>
+  <si>
+    <t>21:39:00</t>
+  </si>
+  <si>
+    <t>19:01:00</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01208</v>
+        <v>0.92439</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -437,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.01309</v>
+        <v>0.92793</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -448,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00353</v>
+        <v>0.92416</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -459,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.01024</v>
+        <v>0.92472</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -470,7 +467,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.01357</v>
+        <v>0.91569</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -481,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.01563</v>
+        <v>0.91899</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -492,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.01541</v>
+        <v>0.85976</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -503,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.01098</v>
+        <v>0.92779</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -514,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.01089</v>
+        <v>0.86849</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -525,10 +522,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.01639</v>
+        <v>0.93372</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/random_scenario_sim.xlsx
+++ b/results/random_scenario_sim.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>min load val</t>
   </si>
@@ -22,31 +22,25 @@
     <t>min load time</t>
   </si>
   <si>
-    <t>21:45:00</t>
-  </si>
-  <si>
-    <t>19:25:00</t>
-  </si>
-  <si>
-    <t>20:50:00</t>
-  </si>
-  <si>
-    <t>19:06:00</t>
-  </si>
-  <si>
-    <t>19:13:00</t>
-  </si>
-  <si>
-    <t>18:59:00</t>
-  </si>
-  <si>
-    <t>20:36:00</t>
-  </si>
-  <si>
-    <t>21:39:00</t>
-  </si>
-  <si>
-    <t>19:01:00</t>
+    <t>05:49:00</t>
+  </si>
+  <si>
+    <t>05:41:00</t>
+  </si>
+  <si>
+    <t>02:20:00</t>
+  </si>
+  <si>
+    <t>05:46:00</t>
+  </si>
+  <si>
+    <t>18:14:00</t>
+  </si>
+  <si>
+    <t>05:59:00</t>
+  </si>
+  <si>
+    <t>05:56:00</t>
   </si>
 </sst>
 </file>
@@ -423,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.92439</v>
+        <v>0.94647</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -434,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.92793</v>
+        <v>0.95628</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -445,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.92416</v>
+        <v>0.91471</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -456,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.92472</v>
+        <v>0.9458</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -467,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.91569</v>
+        <v>0.95079</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -478,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.91899</v>
+        <v>0.94484</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -489,10 +483,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.85976</v>
+        <v>0.95023</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -500,10 +494,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.92779</v>
+        <v>0.9680800000000001</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -511,10 +505,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.86849</v>
+        <v>0.95774</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -522,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.93372</v>
+        <v>0.95673</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
